--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1711"/>
+  <dimension ref="A1:R1715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96229,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96283,7 +96285,225 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>3423.39990234375</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>3428.050048828125</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>3409.550048828125</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>3418.10009765625</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>3418.10009765625</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>60643</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>3418.050048828125</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>3427.14990234375</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>3411.5</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>3420.35009765625</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>3420.35009765625</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>66996</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>3420.89990234375</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>3427.949951171875</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>3416.10009765625</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>3417.199951171875</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>3417.199951171875</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>70658</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>3417.300048828125</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>3426.75</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>3416.050048828125</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>3423.550048828125</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>3423.550048828125</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>50248</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1715"/>
+  <dimension ref="A1:R1716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96341,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96395,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96449,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96503,7 +96509,63 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>3422</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>3444.199951171875</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>3419.800048828125</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>3425.85009765625</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>3425.85009765625</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>91956</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -96565,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1716"/>
+  <dimension ref="A1:R1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96569,6 +96569,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>3427.10009765625</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>3427.10009765625</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>3367</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>3367</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>353918</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>3366.199951171875</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>3379.949951171875</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>3302.85009765625</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>3315</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>3315</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>175882</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45447.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>3314</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>3374.949951171875</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>3299.300048828125</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>3299.300048828125</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>3299.300048828125</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>170917</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45447.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>3294.85009765625</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>3363.75</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>3232.25</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>3354.25</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>3354.25</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>175576</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>3354.199951171875</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>3362</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>3316.300048828125</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>3335.75</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>3335.75</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>175013</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>3332.050048828125</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>3365</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>3316.85009765625</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>3362.800048828125</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>3362.800048828125</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>82776</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45447.63541666666</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>3364.199951171875</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>3372.050048828125</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>3351.85009765625</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>3351.85009765625</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>3351.85009765625</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>31205</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -96229,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>1</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96283,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96337,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96391,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96445,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96499,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96553,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1716"/>
+  <dimension ref="A1:R1718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>1</v>
@@ -96568,6 +96568,114 @@
       <c r="R1716" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45450.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>3732.050048828125</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>3871</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>3732.050048828125</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>3863.64990234375</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>3863.64990234375</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>436207</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45450.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>3861.699951171875</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>3863.5</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>3828.75</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>3830.25</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>3830.25</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>46134</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1718"/>
+  <dimension ref="A1:R1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>1</v>
@@ -96621,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96675,7 +96677,279 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>3847</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>3849.89990234375</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>3831</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>3846.75</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>3846.75</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>50939</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45450.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>3845.64990234375</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>3852</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>3830</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>3840.5</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>3840.5</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>63830</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45450.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>3840.449951171875</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>3861</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>3830.699951171875</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>3849.75</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>3849.75</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>100736</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45450.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>3848.10009765625</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>3855</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>3837.89990234375</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>3849.199951171875</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>3849.199951171875</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>115882</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45450.63541666666</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>3848.5</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>3858.89990234375</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>3845.75</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>3850.25</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>3850.25</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>75088</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1715"/>
+  <dimension ref="A1:R1716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96229,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96283,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96337,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96391,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96445,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96499,7 +96509,63 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45453.63541666666</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>3750</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>3760.64990234375</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>3745.5</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>3745.5</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>3745.5</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>185272</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1716"/>
+  <dimension ref="A1:R1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96221,7 +96221,7 @@
         <v>24</v>
       </c>
       <c r="O1710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1710" t="n">
         <v>0</v>
@@ -96565,7 +96565,387 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>3784.449951171875</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>3785.800048828125</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>3725.5</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>3740</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>3740</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45454.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>3739.85009765625</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>3753.39990234375</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>3730</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>3737.5</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>3737.5</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>69240</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45454.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>3737.5</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>3787.800048828125</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>3732.449951171875</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>3773.550048828125</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>3773.550048828125</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>132172</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45454.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>3773.5</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>3781</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>3741</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>3755.5</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>3755.5</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>74260</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>3755.5</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>3762.85009765625</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>3735.85009765625</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>3735.85009765625</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>3735.85009765625</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>55443</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45454.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>3735.5</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>3749.449951171875</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>3729</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>3737.14990234375</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>3737.14990234375</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>95491</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45454.63541666666</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>3737.85009765625</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>3737.85009765625</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>3726.699951171875</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>3733.85009765625</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>3733.85009765625</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>38996</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1723"/>
+  <dimension ref="A1:R1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96621,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96675,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96729,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96783,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96837,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96891,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96945,7 +96957,387 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>3760.050048828125</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>3810</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>3751.199951171875</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>3776.550048828125</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>3776.550048828125</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>137236</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>3779</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>3779</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>3763</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>3768.800048828125</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>3768.800048828125</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>69056</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>3769.10009765625</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>3779</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>3766.300048828125</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>3775</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>3775</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>43329</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45455.51041666666</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>3775</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>3779.5</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>3770</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>3772.699951171875</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>3772.699951171875</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>23045</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45455.55208333334</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>3772.699951171875</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>3780</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>3769.949951171875</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>3773.35009765625</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>3773.35009765625</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>27995</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45455.59375</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>3772.39990234375</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>3778.199951171875</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>3766.14990234375</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>3775.050048828125</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>3775.050048828125</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>123604</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45455.63541666666</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>3775</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>3775.300048828125</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>3754.14990234375</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>3770.5</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>3770.5</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>85612</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1730"/>
+  <dimension ref="A1:R1737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97013,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97067,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97121,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97175,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97229,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97283,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97337,7 +97349,387 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>3816.89990234375</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>3833.699951171875</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>3792.050048828125</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>3807.300048828125</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>3807.300048828125</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>204268</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>3809.300048828125</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>3819.949951171875</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>3801.75</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>3807.75</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>3807.75</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>63154</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>3808.39990234375</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>3809.85009765625</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>3784.25</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>3798.800048828125</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>3798.800048828125</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>60054</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45456.51041666666</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>3799.64990234375</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>3806</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>3796</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>3803.550048828125</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>3803.550048828125</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>39779</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>3802.699951171875</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>3804.89990234375</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>3792.60009765625</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>3798.75</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>3798.75</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>29615</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45456.59375</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>3798.800048828125</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>3804.10009765625</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>3780</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>3786.800048828125</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>3786.800048828125</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>65101</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>3786.25</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>3795.5</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>3785.25</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>3790.699951171875</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>3790.699951171875</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>30510</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1737"/>
+  <dimension ref="A1:R1744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97397,7 +97397,7 @@
         <v>24</v>
       </c>
       <c r="O1731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1731" t="n">
         <v>0</v>
@@ -97405,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97459,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97513,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97567,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97621,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97675,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97729,7 +97741,387 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45457.38541666666</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>3805.14990234375</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>3805.14990234375</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>3735.050048828125</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>3749.699951171875</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>3749.699951171875</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45457.42708333334</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>3750.89990234375</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>3760</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>3744.050048828125</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>3758.050048828125</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>3758.050048828125</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>36660</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45457.46875</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>3759.75</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>3778.300048828125</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>3756</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>3774.800048828125</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>3774.800048828125</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>51882</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45457.51041666666</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>3774.800048828125</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>3779</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>3763.10009765625</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>3769.949951171875</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>3769.949951171875</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>61292</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45457.55208333334</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>3768.39990234375</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>3800</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>3768.39990234375</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>3768.800048828125</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>3768.800048828125</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>84626</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45457.59375</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>3770</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>3793.699951171875</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>3764.300048828125</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>3770.5</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>3770.5</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>117581</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45457.63541666666</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>3772</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>3774</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>3762.14990234375</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>3772.800048828125</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>3772.800048828125</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>41104</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -97797,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97851,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97905,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97959,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98013,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98067,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98121,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1744"/>
+  <dimension ref="A1:R1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97789,7 +97789,7 @@
         <v>24</v>
       </c>
       <c r="O1738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1738" t="n">
         <v>0</v>
@@ -98136,6 +98136,384 @@
       <c r="R1744" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45461.38541666666</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>3789.85009765625</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>3818.949951171875</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>3783.75</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>3792.699951171875</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>3792.699951171875</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45461.42708333334</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>3791.800048828125</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>3837.60009765625</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>3783.39990234375</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>3831.39990234375</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>3831.39990234375</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>98224</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45461.46875</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>3830</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>3891.14990234375</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>3830</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>3860</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>3860</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>137306</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45461.51041666666</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>3858.60009765625</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>3862.199951171875</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>3843.60009765625</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>3859.14990234375</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>3859.14990234375</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>41153</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45461.55208333334</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>3859.449951171875</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>3859.89990234375</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>3830.199951171875</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>3837.60009765625</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>3837.60009765625</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>44157</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45461.59375</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>3837.35009765625</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>3864</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>3830.5</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>3843</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>3843</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>64283</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45461.63541666666</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>3844.699951171875</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>3852</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>3837</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>3847.550048828125</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>3847.550048828125</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>28928</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1751"/>
+  <dimension ref="A1:R1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98189,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98243,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98297,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98351,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98405,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>1</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98459,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98513,7 +98525,387 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45462.38541666666</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>3869.199951171875</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>3894.25</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>3804.050048828125</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>3807.25</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>3807.25</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>70591</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45462.42708333334</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>3807.25</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>3811.5</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>3765</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>3773</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>3773</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>42804</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45462.46875</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>3773</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>3827.949951171875</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>3770</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>3825</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>3825</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>44631</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45462.51041666666</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>3823.550048828125</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>3837.39990234375</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>3813.64990234375</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>3830.75</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>3830.75</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>34923</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45462.55208333334</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>3831.89990234375</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>3870.89990234375</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>3820.10009765625</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>3837.60009765625</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>3837.60009765625</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>105452</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45462.59375</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>3839.39990234375</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>3862</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>3832.550048828125</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>3841</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>3841</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>52045</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45462.63541666666</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>3841.35009765625</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>3850.85009765625</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>3831.14990234375</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>3842.550048828125</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>3842.550048828125</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>31237</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1758"/>
+  <dimension ref="A1:R1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4387,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
         <v>1</v>
@@ -98573,7 +98573,7 @@
         <v>25</v>
       </c>
       <c r="O1752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1752" t="n">
         <v>0</v>
@@ -98581,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98635,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98689,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98743,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98797,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98851,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98905,7 +98917,1143 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45463.38541666666</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>3855.699951171875</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>3880</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>3834.10009765625</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>3851.89990234375</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>3851.89990234375</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45463.42708333334</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>3851.300048828125</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>3860.14990234375</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>3837.10009765625</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>3848</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>3848</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>18835</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45463.46875</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>3847.949951171875</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>3858.85009765625</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>3828</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>3854.89990234375</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>3854.89990234375</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>22159</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45463.51041666666</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>3854.89990234375</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>3864.85009765625</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>3850</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>3859.949951171875</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>3859.949951171875</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>18088</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45463.55208333334</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>3860</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>3888.949951171875</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>3858.300048828125</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>3885</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>3885</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>47153</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45463.59375</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>3884.800048828125</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>3911.75</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>3876.699951171875</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>3902.10009765625</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>3902.10009765625</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>113440</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45463.63541666666</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>3903.949951171875</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>3906.10009765625</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>3889</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>3891</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>3891</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>30458</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45464.38541666666</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>3938.60009765625</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>4102.25</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>3938.60009765625</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>4010.14990234375</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>4010.14990234375</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>836110</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45464.42708333334</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>4009</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>4019.85009765625</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>3966.35009765625</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>4001.800048828125</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>4001.800048828125</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>85802</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45464.46875</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>4000.300048828125</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>4015.85009765625</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>3994</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>3997.949951171875</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>3997.949951171875</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>45410</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45464.51041666666</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>3996.14990234375</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>4010</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>3951.300048828125</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>3967.449951171875</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>3967.449951171875</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>51340</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45464.55208333334</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>3966.800048828125</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>3985</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>3935.39990234375</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>3972.449951171875</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>3972.449951171875</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>60398</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45464.59375</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>3972.39990234375</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>3976.14990234375</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>3941</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>3941</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>3941</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>121513</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45464.63541666666</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>3941.050048828125</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>3945.25</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>3927.949951171875</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>3935.5</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>3935.5</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>86872</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45467.38541666666</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>3928</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>3950.5</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>3895</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>3935.35009765625</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>3935.35009765625</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45467.42708333334</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>3935.449951171875</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>4030.89990234375</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>3931.050048828125</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>4008.550048828125</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>4008.550048828125</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>183605</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45467.46875</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>4010.10009765625</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>4021</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>3970.35009765625</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>4003</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>4003</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>53231</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45467.51041666666</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>4002.10009765625</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>4021</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>3999.75</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>4021</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>4021</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>53307</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45467.55208333334</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>4019.75</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>4021.5</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>3986.5</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>3991.550048828125</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>3991.550048828125</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>63446</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45467.59375</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>3991.699951171875</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>3996.949951171875</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>3956.60009765625</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>3961.35009765625</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>3961.35009765625</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>147444</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45467.63541666666</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>3961.89990234375</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>3978</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>3957.39990234375</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>3968.10009765625</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>3968.10009765625</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>59474</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1779"/>
+  <dimension ref="A1:R1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -12174,7 +12174,7 @@
         <v>2</v>
       </c>
       <c r="R209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="R237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -15590,7 +15590,7 @@
         <v>2</v>
       </c>
       <c r="R270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -17270,7 +17270,7 @@
         <v>2</v>
       </c>
       <c r="R300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -21414,7 +21414,7 @@
         <v>0</v>
       </c>
       <c r="R374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
       <c r="R397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -25894,7 +25894,7 @@
         <v>0</v>
       </c>
       <c r="R454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -26286,7 +26286,7 @@
         <v>0</v>
       </c>
       <c r="R461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -27854,7 +27854,7 @@
         <v>0</v>
       </c>
       <c r="R489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -29422,7 +29422,7 @@
         <v>0</v>
       </c>
       <c r="R517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -31438,7 +31438,7 @@
         <v>0</v>
       </c>
       <c r="R553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -35694,7 +35694,7 @@
         <v>2</v>
       </c>
       <c r="R629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -36366,7 +36366,7 @@
         <v>0</v>
       </c>
       <c r="R641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -36534,7 +36534,7 @@
         <v>2</v>
       </c>
       <c r="R644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645">
@@ -40790,7 +40790,7 @@
         <v>2</v>
       </c>
       <c r="R720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721">
@@ -43030,7 +43030,7 @@
         <v>0</v>
       </c>
       <c r="R760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761">
@@ -45102,7 +45102,7 @@
         <v>0</v>
       </c>
       <c r="R797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -52942,7 +52942,7 @@
         <v>0</v>
       </c>
       <c r="R937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938">
@@ -53614,7 +53614,7 @@
         <v>2</v>
       </c>
       <c r="R949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -56134,7 +56134,7 @@
         <v>0</v>
       </c>
       <c r="R994" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995">
@@ -63694,7 +63694,7 @@
         <v>1</v>
       </c>
       <c r="R1129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130">
@@ -64702,7 +64702,7 @@
         <v>0</v>
       </c>
       <c r="R1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148">
@@ -65542,7 +65542,7 @@
         <v>1</v>
       </c>
       <c r="R1162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163">
@@ -69798,7 +69798,7 @@
         <v>2</v>
       </c>
       <c r="R1238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1239">
@@ -73326,7 +73326,7 @@
         <v>0</v>
       </c>
       <c r="R1301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302">
@@ -75622,7 +75622,7 @@
         <v>0</v>
       </c>
       <c r="R1342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343">
@@ -76854,7 +76854,7 @@
         <v>0</v>
       </c>
       <c r="R1364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1365">
@@ -84190,7 +84190,7 @@
         <v>1</v>
       </c>
       <c r="R1495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1496">
@@ -85478,7 +85478,7 @@
         <v>2</v>
       </c>
       <c r="R1518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1519">
@@ -86262,7 +86262,7 @@
         <v>1</v>
       </c>
       <c r="R1532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1533">
@@ -87046,7 +87046,7 @@
         <v>2</v>
       </c>
       <c r="R1546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1547">
@@ -88222,7 +88222,7 @@
         <v>0</v>
       </c>
       <c r="R1567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1568">
@@ -89006,7 +89006,7 @@
         <v>0</v>
       </c>
       <c r="R1581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1582">
@@ -98414,7 +98414,7 @@
         <v>1</v>
       </c>
       <c r="R1749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1750">
@@ -98973,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99027,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99081,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99135,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99189,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99243,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99297,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99351,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99405,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99459,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99513,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99567,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99621,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99675,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99729,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99783,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99837,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99891,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99945,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -99999,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100053,7 +100093,765 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45468.38541666666</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>3993.14990234375</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>3993.14990234375</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>3960</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>3971.10009765625</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>3971.10009765625</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45468.42708333334</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>3971.10009765625</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>3995.35009765625</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>3967.199951171875</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>3981.89990234375</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>3981.89990234375</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>19391</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45468.46875</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>3981.89990234375</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>3988.5</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>3965.050048828125</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>3965.199951171875</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>3965.199951171875</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>13165</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45468.51041666666</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>3965.449951171875</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>3975</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>3960</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>3964.75</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>3964.75</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>11182</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45468.55208333334</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>3965.75</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>3971.300048828125</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>3951.699951171875</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>3968.60009765625</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>3968.60009765625</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>22420</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45468.59375</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>3968.39990234375</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>3979.949951171875</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>3958</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>3978.10009765625</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>3978.10009765625</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>37016</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45468.63541666666</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>3978.699951171875</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>3978.699951171875</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>3965.699951171875</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>3974.199951171875</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>3974.199951171875</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45469.38541666666</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>3999.85009765625</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>3999.85009765625</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>3945.10009765625</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>3946.050048828125</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>3946.050048828125</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>49920</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45469.42708333334</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>3946</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>3981.050048828125</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>3946</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>3972.949951171875</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>3972.949951171875</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>26745</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45469.46875</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>3973</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>3996.949951171875</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>3972.949951171875</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>3979.5</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>3979.5</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>23716</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45469.51041666666</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>3979.5</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>3982.5</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>3960</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>3972.85009765625</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>3972.85009765625</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>24113</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45469.55208333334</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>3973</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>3995</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>3973</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>3981.550048828125</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>3981.550048828125</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>44255</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45469.59375</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>3980.25</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>3982.60009765625</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>3940.10009765625</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>3949.550048828125</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>3949.550048828125</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>73769</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45469.63541666666</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>3949.550048828125</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>3959</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>3940</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>3950.89990234375</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>3950.89990234375</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>25627</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -12174,7 +12174,7 @@
         <v>2</v>
       </c>
       <c r="R209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="R237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -15590,7 +15590,7 @@
         <v>2</v>
       </c>
       <c r="R270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -17270,7 +17270,7 @@
         <v>2</v>
       </c>
       <c r="R300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -21414,7 +21414,7 @@
         <v>0</v>
       </c>
       <c r="R374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
       <c r="R397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -25894,7 +25894,7 @@
         <v>0</v>
       </c>
       <c r="R454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -26286,7 +26286,7 @@
         <v>0</v>
       </c>
       <c r="R461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -27854,7 +27854,7 @@
         <v>0</v>
       </c>
       <c r="R489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -29422,7 +29422,7 @@
         <v>0</v>
       </c>
       <c r="R517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -31438,7 +31438,7 @@
         <v>0</v>
       </c>
       <c r="R553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -35694,7 +35694,7 @@
         <v>2</v>
       </c>
       <c r="R629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -36366,7 +36366,7 @@
         <v>0</v>
       </c>
       <c r="R641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -36534,7 +36534,7 @@
         <v>2</v>
       </c>
       <c r="R644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -40790,7 +40790,7 @@
         <v>2</v>
       </c>
       <c r="R720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -43030,7 +43030,7 @@
         <v>0</v>
       </c>
       <c r="R760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -45102,7 +45102,7 @@
         <v>0</v>
       </c>
       <c r="R797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -52942,7 +52942,7 @@
         <v>0</v>
       </c>
       <c r="R937" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938">
@@ -53614,7 +53614,7 @@
         <v>2</v>
       </c>
       <c r="R949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950">
@@ -56134,7 +56134,7 @@
         <v>0</v>
       </c>
       <c r="R994" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995">
@@ -63694,7 +63694,7 @@
         <v>1</v>
       </c>
       <c r="R1129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130">
@@ -64702,7 +64702,7 @@
         <v>0</v>
       </c>
       <c r="R1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148">
@@ -65542,7 +65542,7 @@
         <v>1</v>
       </c>
       <c r="R1162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163">
@@ -69798,7 +69798,7 @@
         <v>2</v>
       </c>
       <c r="R1238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239">
@@ -73326,7 +73326,7 @@
         <v>0</v>
       </c>
       <c r="R1301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1302">
@@ -75622,7 +75622,7 @@
         <v>0</v>
       </c>
       <c r="R1342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1343">
@@ -76854,7 +76854,7 @@
         <v>0</v>
       </c>
       <c r="R1364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1365">
@@ -84190,7 +84190,7 @@
         <v>1</v>
       </c>
       <c r="R1495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1496">
@@ -85478,7 +85478,7 @@
         <v>2</v>
       </c>
       <c r="R1518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1519">
@@ -86262,7 +86262,7 @@
         <v>1</v>
       </c>
       <c r="R1532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1533">
@@ -87046,7 +87046,7 @@
         <v>2</v>
       </c>
       <c r="R1546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1547">
@@ -88222,7 +88222,7 @@
         <v>0</v>
       </c>
       <c r="R1567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1568">
@@ -89006,7 +89006,7 @@
         <v>0</v>
       </c>
       <c r="R1581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1582">
@@ -98414,7 +98414,7 @@
         <v>1</v>
       </c>
       <c r="R1749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1750">
@@ -99198,7 +99198,7 @@
         <v>0</v>
       </c>
       <c r="R1763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1764">
@@ -101325,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101379,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101433,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101487,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101541,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101595,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101649,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1807"/>
+  <dimension ref="A1:R1814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101665,6 +101665,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45474.38541666666</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>4245</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>4365.89990234375</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>4227.2001953125</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>4350.10009765625</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>4350.10009765625</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45474.42708333334</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>4350.10009765625</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>4434.39990234375</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>4350.10009765625</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>4405</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>4405</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>296105</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45474.46875</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>4404.60009765625</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>4460</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>4382</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>4450.75</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>4450.75</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>208329</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45474.51041666666</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>4453</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>4516.5</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>4450.4501953125</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>4504.89990234375</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>4504.89990234375</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>265179</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45474.55208333334</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>4504.89990234375</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>4533.60009765625</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>4496.7998046875</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>4521.2998046875</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>4521.2998046875</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>261130</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45474.59375</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>4519.2998046875</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>4548</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>4486.2998046875</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>4499.2998046875</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>4499.2998046875</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>325375</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45474.63541666666</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>4500.9501953125</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>4503.64990234375</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>4471.5</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>4496.14990234375</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>4496.14990234375</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>83109</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1814"/>
+  <dimension ref="A1:R1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101717,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101771,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101825,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101879,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101933,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101987,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102041,7 +102053,387 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45475.38541666666</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>4495.10009765625</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>4522</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>4423.35009765625</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>4517.39990234375</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>4517.39990234375</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45475.42708333334</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>4517.60009765625</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>4553.89990234375</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>4476.0498046875</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>4499.25</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>4499.25</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>137870</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45475.46875</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>4499.5498046875</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>4527.85009765625</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>4486.60009765625</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>4495.25</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>4495.25</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>64209</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45475.51041666666</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>4494.14990234375</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>4511.2001953125</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>4450.10009765625</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>4478.39990234375</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>4478.39990234375</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>80452</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45475.55208333334</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>4475.64990234375</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>4525</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>4474.4501953125</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>4514.2998046875</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>4514.2998046875</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>77197</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45475.59375</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>4514.35009765625</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>4535</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>4496.7998046875</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>71999</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45475.63541666666</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>4500.0498046875</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>4511.89990234375</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>4475.5</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>4501.75</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>4501.75</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>42026</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1821"/>
+  <dimension ref="A1:R1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102109,7 +102109,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102163,7 +102165,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102217,7 +102221,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102271,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102325,7 +102333,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102379,7 +102389,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102433,7 +102445,387 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45476.38541666666</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>4544.7998046875</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>4592.10009765625</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>4482.7998046875</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>4566.7998046875</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>4566.7998046875</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45476.42708333334</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>4563.5498046875</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>4578</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>4530</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>4558.5498046875</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>4558.5498046875</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>72131</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45476.46875</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>4558.5498046875</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>4573</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>4550</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>4567.89990234375</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>4567.89990234375</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>43167</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45476.51041666666</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>4566.25</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>4620</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>4559.60009765625</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>4615.7998046875</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>4615.7998046875</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>110865</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45476.55208333334</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>4617.89990234375</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>4620</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>4582</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>4589.39990234375</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>4589.39990234375</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>61172</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45476.59375</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>4589.4501953125</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>4598.9501953125</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>4565.0498046875</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>4598.9501953125</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>4598.9501953125</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>69949</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45476.63541666666</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>4597</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>4599.5</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>4590</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>4593.39990234375</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>4593.39990234375</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>36155</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1828"/>
+  <dimension ref="A1:R1835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102501,7 +102501,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102555,7 +102557,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102609,7 +102613,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102663,7 +102669,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102717,7 +102725,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102771,7 +102781,9 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -102825,7 +102837,387 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45477.38541666666</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>4634.5</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>4745.4501953125</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>4634.5</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>4725</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>4725</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>378222</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45477.42708333334</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>4725</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>4758.60009765625</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>4703.2998046875</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>4707.64990234375</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>4707.64990234375</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>168740</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45477.46875</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>4708.75</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>4747.85009765625</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>4681.2001953125</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>4746</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>4746</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>153997</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45477.51041666666</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>4746.10009765625</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>4760</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>4728.7998046875</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>4731</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>4731</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>67487</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45477.55208333334</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>4730.14990234375</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>4748.39990234375</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>4723.5498046875</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>4737</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>4737</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>36470</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45477.59375</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>4737</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>4752</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>4730.9501953125</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>4746.7001953125</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>4746.7001953125</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>65904</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45477.63541666666</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>4747.25</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>4760</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>4745.85009765625</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>4750.89990234375</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>4750.89990234375</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>40283</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/PERSISTENT.NS.xlsx
+++ b/stock_historical_data/60m/PERSISTENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1835"/>
+  <dimension ref="A1:R1842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102893,7 +102893,9 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -102947,7 +102949,9 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -103001,7 +103005,9 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
@@ -103055,7 +103061,9 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -103109,7 +103117,9 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -103163,7 +103173,9 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
@@ -103217,7 +103229,387 @@
       <c r="Q1835" t="n">
         <v>0</v>
       </c>
-      <c r="R1835" t="inlineStr"/>
+      <c r="R1835" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45478.38541666666</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>4769.85009765625</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>4843.7998046875</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>4753</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>4771.2998046875</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>4771.2998046875</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45478.42708333334</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>4771.9501953125</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>4792.9501953125</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>4757</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>4791.9501953125</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>4791.9501953125</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>77749</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45478.46875</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>4790.10009765625</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>4792.4501953125</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>4762.60009765625</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>4780</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>4780</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>51098</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45478.51041666666</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>4779</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>4792</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>4775</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>4780.85009765625</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>4780.85009765625</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>34439</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45478.55208333334</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>4781.4501953125</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>4785</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>4722.0498046875</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>4728.64990234375</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>4728.64990234375</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>57891</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45478.59375</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>4728.64990234375</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>4784.25</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>4718</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>4783.89990234375</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>4783.89990234375</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>92866</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45478.63541666666</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>4783.89990234375</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>4791.9501953125</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>4760</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>4771.25</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>4771.25</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>33644</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1842" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1842" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1842" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1842" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
